--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H2">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I2">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J2">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N2">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q2">
-        <v>2.388667357908</v>
+        <v>3.5776444077</v>
       </c>
       <c r="R2">
-        <v>21.498006221172</v>
+        <v>32.1987996693</v>
       </c>
       <c r="S2">
-        <v>0.07326981787214357</v>
+        <v>0.09132592689500639</v>
       </c>
       <c r="T2">
-        <v>0.07326981787214358</v>
+        <v>0.09132592689500639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H3">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I3">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J3">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.272974</v>
       </c>
       <c r="O3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q3">
-        <v>6.335020553363999</v>
+        <v>7.892167413329999</v>
       </c>
       <c r="R3">
-        <v>57.015184980276</v>
+        <v>71.02950671997</v>
       </c>
       <c r="S3">
-        <v>0.1943199837451556</v>
+        <v>0.2014620297874405</v>
       </c>
       <c r="T3">
-        <v>0.1943199837451556</v>
+        <v>0.2014620297874405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H4">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I4">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J4">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N4">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q4">
-        <v>1.430550908448</v>
+        <v>4.07990658798</v>
       </c>
       <c r="R4">
-        <v>12.874958176032</v>
+        <v>36.71915929182</v>
       </c>
       <c r="S4">
-        <v>0.04388061994978353</v>
+        <v>0.1041470890707819</v>
       </c>
       <c r="T4">
-        <v>0.04388061994978353</v>
+        <v>0.1041470890707819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H5">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I5">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J5">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N5">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q5">
-        <v>3.043097100642</v>
+        <v>3.43970083881</v>
       </c>
       <c r="R5">
-        <v>27.387873905778</v>
+        <v>30.95730754929</v>
       </c>
       <c r="S5">
-        <v>0.09334375068722947</v>
+        <v>0.08780466461947933</v>
       </c>
       <c r="T5">
-        <v>0.09334375068722947</v>
+        <v>0.08780466461947933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H6">
         <v>2.866893</v>
       </c>
       <c r="I6">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J6">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N6">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q6">
-        <v>2.434972634406</v>
+        <v>2.927435409286666</v>
       </c>
       <c r="R6">
-        <v>21.914753709654</v>
+        <v>26.34691868358</v>
       </c>
       <c r="S6">
-        <v>0.07469018273135908</v>
+        <v>0.07472815118320884</v>
       </c>
       <c r="T6">
-        <v>0.07469018273135908</v>
+        <v>0.07472815118320884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H7">
         <v>2.866893</v>
       </c>
       <c r="I7">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J7">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>20.272974</v>
       </c>
       <c r="O7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q7">
-        <v>6.457827472197999</v>
+        <v>6.457827472198</v>
       </c>
       <c r="R7">
-        <v>58.12044724978199</v>
+        <v>58.120447249782</v>
       </c>
       <c r="S7">
-        <v>0.1980869547076955</v>
+        <v>0.1648478754224958</v>
       </c>
       <c r="T7">
-        <v>0.1980869547076955</v>
+        <v>0.1648478754224958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H8">
         <v>2.866893</v>
       </c>
       <c r="I8">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J8">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N8">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q8">
-        <v>1.458282712602667</v>
+        <v>3.338415351321333</v>
       </c>
       <c r="R8">
-        <v>13.124544413424</v>
+        <v>30.045738161892</v>
       </c>
       <c r="S8">
-        <v>0.04473126339871394</v>
+        <v>0.08521916702055453</v>
       </c>
       <c r="T8">
-        <v>0.04473126339871394</v>
+        <v>0.08521916702055453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H9">
         <v>2.866893</v>
       </c>
       <c r="I9">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J9">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N9">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q9">
-        <v>3.102088760652333</v>
+        <v>2.814562009352667</v>
       </c>
       <c r="R9">
-        <v>27.918798845871</v>
+        <v>25.331058084174</v>
       </c>
       <c r="S9">
-        <v>0.09515325679975825</v>
+        <v>0.07184685089283419</v>
       </c>
       <c r="T9">
-        <v>0.09515325679975825</v>
+        <v>0.07184685089283419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H10">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I10">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J10">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N10">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q10">
-        <v>0.393407570322</v>
+        <v>0.875467580191111</v>
       </c>
       <c r="R10">
-        <v>3.540668132898</v>
+        <v>7.879208221719999</v>
       </c>
       <c r="S10">
-        <v>0.01206735669225218</v>
+        <v>0.02234791363149525</v>
       </c>
       <c r="T10">
-        <v>0.01206735669225219</v>
+        <v>0.02234791363149524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H11">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I11">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J11">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.272974</v>
       </c>
       <c r="O11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q11">
-        <v>1.043362122226</v>
+        <v>1.931253059398667</v>
       </c>
       <c r="R11">
-        <v>9.390259100033997</v>
+        <v>17.381277534588</v>
       </c>
       <c r="S11">
-        <v>0.03200401781231883</v>
+        <v>0.04929877193462814</v>
       </c>
       <c r="T11">
-        <v>0.03200401781231883</v>
+        <v>0.04929877193462814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H12">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I12">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J12">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N12">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q12">
-        <v>0.2356081750986667</v>
+        <v>0.9983736618142222</v>
       </c>
       <c r="R12">
-        <v>2.120473575888</v>
+        <v>8.985362956327998</v>
       </c>
       <c r="S12">
-        <v>0.007227028921174843</v>
+        <v>0.02548531649945662</v>
       </c>
       <c r="T12">
-        <v>0.007227028921174844</v>
+        <v>0.02548531649945661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H13">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I13">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J13">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N13">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O13">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P13">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q13">
-        <v>0.5011905205863332</v>
+        <v>0.8417120951017778</v>
       </c>
       <c r="R13">
-        <v>4.510714685277</v>
+        <v>7.575408855916</v>
       </c>
       <c r="S13">
-        <v>0.01537348347857308</v>
+        <v>0.02148624304261865</v>
       </c>
       <c r="T13">
-        <v>0.01537348347857308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.804863</v>
-      </c>
-      <c r="I14">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J14">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.548026</v>
-      </c>
-      <c r="N14">
-        <v>7.644078</v>
-      </c>
-      <c r="O14">
-        <v>0.1809961777378536</v>
-      </c>
-      <c r="P14">
-        <v>0.1809961777378536</v>
-      </c>
-      <c r="Q14">
-        <v>0.683603950146</v>
-      </c>
-      <c r="R14">
-        <v>6.152435551314</v>
-      </c>
-      <c r="S14">
-        <v>0.02096882044209877</v>
-      </c>
-      <c r="T14">
-        <v>0.02096882044209877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.804863</v>
-      </c>
-      <c r="I15">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J15">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.757657999999999</v>
-      </c>
-      <c r="N15">
-        <v>20.272974</v>
-      </c>
-      <c r="O15">
-        <v>0.4800226796977849</v>
-      </c>
-      <c r="P15">
-        <v>0.4800226796977849</v>
-      </c>
-      <c r="Q15">
-        <v>1.812996296951333</v>
-      </c>
-      <c r="R15">
-        <v>16.316966672562</v>
-      </c>
-      <c r="S15">
-        <v>0.055611723432615</v>
-      </c>
-      <c r="T15">
-        <v>0.05561172343261501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.804863</v>
-      </c>
-      <c r="I16">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J16">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.525989333333333</v>
-      </c>
-      <c r="N16">
-        <v>4.577968</v>
-      </c>
-      <c r="O16">
-        <v>0.108396945950343</v>
-      </c>
-      <c r="P16">
-        <v>0.108396945950343</v>
-      </c>
-      <c r="Q16">
-        <v>0.4094041175982222</v>
-      </c>
-      <c r="R16">
-        <v>3.684637058384</v>
-      </c>
-      <c r="S16">
-        <v>0.01255803368067071</v>
-      </c>
-      <c r="T16">
-        <v>0.01255803368067072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.804863</v>
-      </c>
-      <c r="I17">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J17">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.246115666666666</v>
-      </c>
-      <c r="N17">
-        <v>9.738346999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.2305841966140185</v>
-      </c>
-      <c r="P17">
-        <v>0.2305841966140185</v>
-      </c>
-      <c r="Q17">
-        <v>0.870892797940111</v>
-      </c>
-      <c r="R17">
-        <v>7.838035181461</v>
-      </c>
-      <c r="S17">
-        <v>0.02671370564845769</v>
-      </c>
-      <c r="T17">
-        <v>0.0267137056484577</v>
+        <v>0.02148624304261865</v>
       </c>
     </row>
   </sheetData>
